--- a/Project2463_M. A. O'Leary(2018).xlsx
+++ b/Project2463_M. A. O'Leary(2018).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B886F2-1234-5F42-A0E3-50B1F6CCC4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E75404-BF33-41E5-95C3-A6A9B3EA193C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{82CB97C3-56FC-3A46-9CD0-A600CD051AFF}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="15870" windowHeight="18585" xr2:uid="{82CB97C3-56FC-3A46-9CD0-A600CD051AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Project2463" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,10 @@
     <t xml:space="preserve"> [5] 'petal color'</t>
   </si>
   <si>
-    <t>Tranformational</t>
-  </si>
-  <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>Transformational</t>
   </si>
 </sst>
 </file>
@@ -505,16 +505,16 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,59 +525,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
